--- a/trunk/src/test/target/v850esfk3/test/and/TEST_AND.xlsx
+++ b/trunk/src/test/target/v850esfk3/test/and/TEST_AND.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_SPEC" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>テスト番号</t>
     <rPh sb="3" eb="5">
@@ -634,6 +634,13 @@
   </si>
   <si>
     <t>reg1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て1</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1293,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1539,6 +1546,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
@@ -1546,16 +1563,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,7 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="250" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="250" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2014,7 +2023,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>97</v>
